--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_011.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_011.xlsx
@@ -31,304 +31,310 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295016AA1.07) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Control room/local control transfer mechanisms</t>
-  </si>
-  <si>
-    <t>(295018AK2.06) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(295005AA2.04) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295019AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Leak isolation</t>
-  </si>
-  <si>
-    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA1.07) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295021AK2.05) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
+    <t>(295003AA1.05) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Station batteries</t>
+  </si>
+  <si>
+    <t>(700000AK2.08) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Main turbine generator and auxiliary systems</t>
+  </si>
+  <si>
+    <t>(295021AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
   </si>
   <si>
     <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
   </si>
   <si>
-    <t>(295037EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Maintaining heat sinks external to the containment</t>
-  </si>
-  <si>
-    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295031EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6)</t>
-  </si>
-  <si>
-    <t>(295001AK2.13) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) RCIS (BWR 6)</t>
-  </si>
-  <si>
-    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
-  </si>
-  <si>
-    <t>(295006AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Direct turbine generator trip</t>
-  </si>
-  <si>
-    <t>(295030EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Heat capacity</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295002AK2.01) Knowledge of the relationship between the (APE 2) LOSS OF MAIN CONDENSER VACUUM and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(295022AA2.05) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295013AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Limiting heat additions</t>
-  </si>
-  <si>
-    <t>(295008AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Containment integrity</t>
-  </si>
-  <si>
-    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295010AA1.11) Ability to operate and/or monitor the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Drywell/suppression chamber differential pressure </t>
-  </si>
-  <si>
-    <t>(209002A3.07) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Emergency diesel generator operation</t>
-  </si>
-  <si>
-    <t>(262001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Load currents</t>
-  </si>
-  <si>
-    <t>(223002K3.16) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Shutdown cooling system/RHR</t>
-  </si>
-  <si>
-    <t>(263000K2.01) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Operationally significant DC loads</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(217000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) High suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(215004K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RMCS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(215003A4.05) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Trip bypasses</t>
+    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
+  </si>
+  <si>
+    <t>(295027EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) RHR/LPCI containment spray system mode</t>
+  </si>
+  <si>
+    <t>(295030EK2.03) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
+  </si>
+  <si>
+    <t>(295025EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure effects on reactor water level</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.03) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Core flow</t>
+  </si>
+  <si>
+    <t>(295031EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Core submergence</t>
+  </si>
+  <si>
+    <t>(295024EA1.15) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Containment/drywell atmospheric monitoring</t>
+  </si>
+  <si>
+    <t>(295038EK2.10) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Condenser air removal system</t>
+  </si>
+  <si>
+    <t>(295005AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor pressure control</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(295037EA1.18) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) RPIS</t>
+  </si>
+  <si>
+    <t>(295023AK2.07) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(500000EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for drywell</t>
+  </si>
+  <si>
+    <t>(295036EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.5 / 41.10 / 45.6) Emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295012AA1.03) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(295008AK2.09) Knowledge of the relationship between the (APE 8) HIGH REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system (ability to drain)</t>
+  </si>
+  <si>
+    <t>(295017AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
+  </si>
+  <si>
+    <t>(264000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(215005K2.03) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) OPRM channels</t>
+  </si>
+  <si>
+    <t>(510000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Flood prevention</t>
+  </si>
+  <si>
+    <t>(259002A4.12) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Instrument bypass switches</t>
   </si>
   <si>
     <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
   </si>
   <si>
-    <t>(510000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
-  </si>
-  <si>
-    <t>(215005A3.06) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Maximum disagreement between flow comparator channels</t>
-  </si>
-  <si>
-    <t>(400000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) Surge tank level</t>
-  </si>
-  <si>
-    <t>(300000K3.10) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(209001K2.03) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (291004K1.13) PUMPS (CFR: 41.3) (CENTRIFUGAL) Theory of operation of a centrifugal pump</t>
-  </si>
-  <si>
-    <t>(261000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Primary containment isolation system/nuclear steam supply shutoff system</t>
-  </si>
-  <si>
-    <t>(218000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(259002K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Pump runout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(203000A4.03) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill system </t>
-  </si>
-  <si>
-    <t>(205000K4.01) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) High temperature isolation /protection</t>
-  </si>
-  <si>
-    <t>(239002A2.05) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor pressure</t>
-  </si>
-  <si>
-    <t>(209002A3.08) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(262001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) System frequency</t>
-  </si>
-  <si>
-    <t>(223002K3.28) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment nitrogen inerting system</t>
-  </si>
-  <si>
-    <t>(263000K2.04) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Inverters</t>
-  </si>
-  <si>
-    <t>(201003K4.01) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Limiting control rod velocity in the event of a rod drop</t>
-  </si>
-  <si>
-    <t>(239001A2.04) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam line low pressure</t>
-  </si>
-  <si>
-    <t>(245000A3.08) Ability to monitor automatic operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.7 / 45.7) Hydrogen gas pressure control</t>
-  </si>
-  <si>
-    <t>(202002A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Recirculation pump speed</t>
-  </si>
-  <si>
-    <t>(223001K3.07) Knowledge of the effect that a loss or malfunction of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Differential pressure between suppression pool and drywell/containment</t>
-  </si>
-  <si>
-    <t>(201005K2.01) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) Knowledge of electrical power supplies to the following: (CFR: 41.6 / 41.7) RCIS</t>
-  </si>
-  <si>
-    <t>(234000) (SF8 FH) FUEL HANDLING (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(204000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM : (CFR: 41.7 / 45.7) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(271000K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 OG) OFFGAS SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 / 41.14 / 45.6 to 45.8) Hydrogen water chemistry system</t>
-  </si>
-  <si>
-    <t>(216000K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Reference leg flashing</t>
-  </si>
-  <si>
-    <t>(259001A4.04) Ability to manually operate and/or monitor the (SF2 FWS) FEEDWATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System valves</t>
-  </si>
-  <si>
-    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+    <t>(262001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) System power</t>
+  </si>
+  <si>
+    <t>(205000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC power</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(211000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Plant air systems</t>
+  </si>
+  <si>
+    <t>(217000A3.08) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Automatic flow control</t>
+  </si>
+  <si>
+    <t>(212000K3.07) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
+  </si>
+  <si>
+    <t>(215004K2.02) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive modules</t>
+  </si>
+  <si>
+    <t>(218000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Reactor water level</t>
+  </si>
+  <si>
+    <t>(239002A4.01) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
+  </si>
+  <si>
+    <t>(400000K4.02) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Containment isolation</t>
+  </si>
+  <si>
+    <t>(203000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(209002A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal valve positions</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (291008K1.03) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Meaning and/or the loss of power supply circuit breaker indicator lights and capability to remotely open and close</t>
+  </si>
+  <si>
+    <t>(223002K1.27) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant pneumatic systems</t>
+  </si>
+  <si>
+    <t>(209001K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Low reactor water level</t>
+  </si>
+  <si>
+    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
+  </si>
+  <si>
+    <t>(264000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant loads</t>
+  </si>
+  <si>
+    <t>(215005K2.02) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) APRM channels</t>
+  </si>
+  <si>
+    <t>(510000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Intake/traveling screen high differential pressure/ differential level</t>
+  </si>
+  <si>
+    <t>(259002A4.11) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) High-level lockout reset controls</t>
+  </si>
+  <si>
+    <t>(202002K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.7 / 45.7) Flow control valves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(268000A3.02) Ability to monitor automatic operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.7 / 45.7) Primary/secondary containment sump pump operation </t>
+  </si>
+  <si>
+    <t>(256000K3.06) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIC</t>
+  </si>
+  <si>
+    <t>(510001K2.01) (SF8 CWS*) CIRCULATING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) System pumps</t>
+  </si>
+  <si>
+    <t>(230000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.5 / 45.3) System lineup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(201003A4.01) Ability to manually operate and/or monitor the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM in the control room: (CFR: 41.1-7 / 45.1-8) CRD mechanism temperature </t>
+  </si>
+  <si>
+    <t>(271000K4.04) Knowledge of (SF9 OG) OFFGAS SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of hydrogen explosions or fires</t>
+  </si>
+  <si>
+    <t>(202001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) Core flow</t>
+  </si>
+  <si>
+    <t>(245000A2.02) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of lube oil</t>
+  </si>
+  <si>
+    <t>(204000) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM  (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(241000K1.40) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation system</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
   </si>
   <si>
     <t>(292005K1.10) CONTROL RODS (CFR: 41.1) State the purpose of flux shaping</t>
   </si>
   <si>
+    <t>(292002K1.10) NEUTRON LIFE CYCLE (CFR: 41.1) Define shutdown margin</t>
+  </si>
+  <si>
     <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
   </si>
   <si>
-    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
-  </si>
-  <si>
-    <t>(293006K1.30) FLUID STATICS AND DYNAMICS (CFR: 41.14) Describe the methods of controlling system flow rates</t>
-  </si>
-  <si>
-    <t>(293008K1.31) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Explain the necessity of core orificing</t>
-  </si>
-  <si>
-    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295025EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AA2.04) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System flow</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295035EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release rate</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(217000A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of lube oil cooling</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(212000A2.10) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system low hydraulic pressure</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(286000A2.09) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(256000A2.14) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+    <t>(293007K1.07) HEAT TRANSFER (CFR: 41.14) (HEAT EXCHANGERS) Describe how the presence of gases or steam can</t>
+  </si>
+  <si>
+    <t>(293010K1.01) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the brittle fracture mode of failure</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(700000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator overheating and the required actions</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295032EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Area temperature</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262001A2.05) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Bus grounds /faults</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(261000A2.13) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High secondary containment ventilation exhaust radiation</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(223001A2.08) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Compressor trips (loss of air)</t>
+  </si>
+  <si>
+    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(239001A2.05) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam line high radiation</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>K1</t>
@@ -337,33 +343,27 @@
     <t>G</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
     <t>295025</t>
   </si>
   <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
     <t>295016</t>
   </si>
   <si>
     <t>295018</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
     <t>600000</t>
   </si>
   <si>
-    <t>700000</t>
+    <t>295037</t>
   </si>
   <si>
     <t>295023</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295038</t>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293005</t>
   </si>
   <si>
     <t>295002</t>
   </si>
   <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>201003</t>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>259001</t>
   </si>
   <si>
     <t>239001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>256000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1837,7 +1837,7 @@
         <v>3.3</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1854,7 +1854,7 @@
         <v>3.4</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2262,7 +2262,7 @@
         <v>4.1</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D78" t="s">
         <v>109</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="s">
         <v>109</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D82" t="s">
         <v>109</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
         <v>109</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D94" t="s">
         <v>109</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
